--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1160.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1160.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.323673835927217</v>
+        <v>1.164479374885559</v>
       </c>
       <c r="B1">
-        <v>1.451465232020614</v>
+        <v>2.420864820480347</v>
       </c>
       <c r="C1">
-        <v>1.71155140971409</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.972268846918774</v>
+        <v>2.377026081085205</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.235227346420288</v>
       </c>
     </row>
   </sheetData>
